--- a/LibraryReleases.xlsx
+++ b/LibraryReleases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OscarAzevedo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55EE7B5-B7EF-48D3-B997-C5F4CC9339CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFF44A-F6FF-4A20-9C67-248EFEB56538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,22 +129,22 @@
     <t>Type</t>
   </si>
   <si>
-    <t>web server</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>framework</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>cms</t>
-  </si>
-  <si>
-    <t>operating system</t>
+    <t>1. operating system</t>
+  </si>
+  <si>
+    <t>2. web server</t>
+  </si>
+  <si>
+    <t>3. database</t>
+  </si>
+  <si>
+    <t>4. framework</t>
+  </si>
+  <si>
+    <t>5. cms</t>
+  </si>
+  <si>
+    <t>6. library</t>
   </si>
 </sst>
 </file>
@@ -580,12 +580,13 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,24 +603,24 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -627,10 +628,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -638,10 +639,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -649,10 +650,10 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -660,10 +661,10 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -671,21 +672,21 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -693,10 +694,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -704,85 +705,85 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{49FC7FDA-BB60-48DB-9F65-41455B120467}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{060854A0-5A76-47A4-B8B9-0DB09E379211}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{A4FD715B-78C5-46F4-AF08-67D42E548848}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{4F77303B-F271-42E5-AF1D-4047DEC6FC6B}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{F6235380-C65B-4B52-9FD4-92B0B14F1235}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{F811DB67-1D07-4EB4-A3D6-389D40659B9B}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{9CBB29F3-46DE-4555-B2B6-97E5629AB267}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{75AC2B5B-8637-467A-BAE8-BB5AF159AF51}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{A753D549-8535-471B-A1BB-A38FE08337C2}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{9EF5CB09-3413-40ED-AB8A-E3F04E45BF77}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{A1759541-FFFB-4C99-A941-B002E2B01393}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{FF4A0537-87FB-43D5-85BB-B0D6EF9D3C2D}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{B74A6A2F-FFDE-40F0-A0C6-E517C6FFDD72}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{994C1B46-7FFD-4B6F-9D20-D356067696FA}"/>
-    <hyperlink ref="D8" r:id="rId15" xr:uid="{B7E086D5-D10B-4458-86B3-00CCC003AD4A}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{49FC7FDA-BB60-48DB-9F65-41455B120467}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{060854A0-5A76-47A4-B8B9-0DB09E379211}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{A4FD715B-78C5-46F4-AF08-67D42E548848}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{4F77303B-F271-42E5-AF1D-4047DEC6FC6B}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{F6235380-C65B-4B52-9FD4-92B0B14F1235}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F811DB67-1D07-4EB4-A3D6-389D40659B9B}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{9CBB29F3-46DE-4555-B2B6-97E5629AB267}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{75AC2B5B-8637-467A-BAE8-BB5AF159AF51}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{A753D549-8535-471B-A1BB-A38FE08337C2}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{9EF5CB09-3413-40ED-AB8A-E3F04E45BF77}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{A1759541-FFFB-4C99-A941-B002E2B01393}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{FF4A0537-87FB-43D5-85BB-B0D6EF9D3C2D}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{B74A6A2F-FFDE-40F0-A0C6-E517C6FFDD72}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{994C1B46-7FFD-4B6F-9D20-D356067696FA}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{B7E086D5-D10B-4458-86B3-00CCC003AD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>

--- a/LibraryReleases.xlsx
+++ b/LibraryReleases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OscarAzevedo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFF44A-F6FF-4A20-9C67-248EFEB56538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D87AA10-BC59-4FDE-9E1D-A8AAC77D44DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="LibReleases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LibReleases!$C$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LibReleases!$B$1:$C$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">LibReleases!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -220,13 +221,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -300,10 +301,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D183940-CD94-436F-920C-33F6B0E7866D}" name="Table1" displayName="Table1" ref="B1:D17" totalsRowShown="0">
-  <autoFilter ref="B1:D17" xr:uid="{4D183940-CD94-436F-920C-33F6B0E7866D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D17">
-    <sortCondition ref="B1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D183940-CD94-436F-920C-33F6B0E7866D}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{4D183940-CD94-436F-920C-33F6B0E7866D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="5" xr3:uid="{85372461-6C41-4592-A7AA-EEBAE3D2E4DB}" name="Type"/>
@@ -577,216 +578,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{49FC7FDA-BB60-48DB-9F65-41455B120467}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{060854A0-5A76-47A4-B8B9-0DB09E379211}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{A4FD715B-78C5-46F4-AF08-67D42E548848}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{4F77303B-F271-42E5-AF1D-4047DEC6FC6B}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{F6235380-C65B-4B52-9FD4-92B0B14F1235}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{F811DB67-1D07-4EB4-A3D6-389D40659B9B}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{9CBB29F3-46DE-4555-B2B6-97E5629AB267}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{75AC2B5B-8637-467A-BAE8-BB5AF159AF51}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{A753D549-8535-471B-A1BB-A38FE08337C2}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{9EF5CB09-3413-40ED-AB8A-E3F04E45BF77}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{A1759541-FFFB-4C99-A941-B002E2B01393}"/>
-    <hyperlink ref="D2" r:id="rId12" xr:uid="{FF4A0537-87FB-43D5-85BB-B0D6EF9D3C2D}"/>
-    <hyperlink ref="D12" r:id="rId13" xr:uid="{B74A6A2F-FFDE-40F0-A0C6-E517C6FFDD72}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{994C1B46-7FFD-4B6F-9D20-D356067696FA}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{B7E086D5-D10B-4458-86B3-00CCC003AD4A}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{49FC7FDA-BB60-48DB-9F65-41455B120467}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{060854A0-5A76-47A4-B8B9-0DB09E379211}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{A4FD715B-78C5-46F4-AF08-67D42E548848}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{4F77303B-F271-42E5-AF1D-4047DEC6FC6B}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{F6235380-C65B-4B52-9FD4-92B0B14F1235}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{F811DB67-1D07-4EB4-A3D6-389D40659B9B}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{9CBB29F3-46DE-4555-B2B6-97E5629AB267}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{75AC2B5B-8637-467A-BAE8-BB5AF159AF51}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{A753D549-8535-471B-A1BB-A38FE08337C2}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{9EF5CB09-3413-40ED-AB8A-E3F04E45BF77}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{A1759541-FFFB-4C99-A941-B002E2B01393}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{FF4A0537-87FB-43D5-85BB-B0D6EF9D3C2D}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{B74A6A2F-FFDE-40F0-A0C6-E517C6FFDD72}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{994C1B46-7FFD-4B6F-9D20-D356067696FA}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{B7E086D5-D10B-4458-86B3-00CCC003AD4A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
   <drawing r:id="rId17"/>
   <tableParts count="1">
     <tablePart r:id="rId18"/>
